--- a/ValueSet-assay-strategy-vs.xlsx
+++ b/ValueSet-assay-strategy-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
